--- a/inflation_poland.xlsx
+++ b/inflation_poland.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katarzynaiwaszkiewicz/Desktop/InflationProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7E3AC5-0A83-FF41-BBFF-490555C1742D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B714D951-7491-0A4F-953D-51BBD68FF7F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16300" xr2:uid="{3830BD7F-F277-2A44-A7BC-9DDA4BB06CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="28">
   <si>
     <t>dolnośląskie</t>
   </si>
@@ -110,52 +110,7 @@
     <t>IV</t>
   </si>
   <si>
-    <t xml:space="preserve">dolnośląskie </t>
-  </si>
-  <si>
     <t xml:space="preserve">kujawsko-pomorskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lubelskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lubuskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">łódzkie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">małopolskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">mazowieckie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">opolskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">podkarpackie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">podlaskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">pomorskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">śląskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">świętokrzyskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">warmińsko-mazurskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">wielkopolskie </t>
-  </si>
-  <si>
-    <t xml:space="preserve">zachodniopomorskie </t>
   </si>
   <si>
     <t>YearAsNum</t>
@@ -532,8 +487,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5159172C-E99D-0848-9490-B44C394C7412}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -552,13 +507,13 @@
         <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="F1" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2163,7 +2118,7 @@
     </row>
     <row r="66" spans="1:7">
       <c r="A66" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B66">
         <v>102</v>
@@ -2188,7 +2143,7 @@
     </row>
     <row r="67" spans="1:7">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67">
         <v>102.1</v>
@@ -2213,7 +2168,7 @@
     </row>
     <row r="68" spans="1:7">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B68">
         <v>102</v>
@@ -2238,7 +2193,7 @@
     </row>
     <row r="69" spans="1:7">
       <c r="A69" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B69">
         <v>102.4</v>
@@ -2263,7 +2218,7 @@
     </row>
     <row r="70" spans="1:7">
       <c r="A70" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B70">
         <v>102.3</v>
@@ -2288,7 +2243,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B71">
         <v>102.4</v>
@@ -2313,7 +2268,7 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B72">
         <v>101.8</v>
@@ -2338,7 +2293,7 @@
     </row>
     <row r="73" spans="1:7">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B73">
         <v>102.5</v>
@@ -2363,7 +2318,7 @@
     </row>
     <row r="74" spans="1:7">
       <c r="A74" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B74">
         <v>101.8</v>
@@ -2388,7 +2343,7 @@
     </row>
     <row r="75" spans="1:7">
       <c r="A75" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B75">
         <v>102.3</v>
@@ -2413,7 +2368,7 @@
     </row>
     <row r="76" spans="1:7">
       <c r="A76" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B76">
         <v>101.9</v>
@@ -2438,7 +2393,7 @@
     </row>
     <row r="77" spans="1:7">
       <c r="A77" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B77">
         <v>102</v>
@@ -2463,7 +2418,7 @@
     </row>
     <row r="78" spans="1:7">
       <c r="A78" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B78">
         <v>102.3</v>
@@ -2488,7 +2443,7 @@
     </row>
     <row r="79" spans="1:7">
       <c r="A79" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B79">
         <v>102.2</v>
@@ -2513,7 +2468,7 @@
     </row>
     <row r="80" spans="1:7">
       <c r="A80" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B80">
         <v>102</v>
@@ -2538,7 +2493,7 @@
     </row>
     <row r="81" spans="1:7">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B81">
         <v>102.1</v>
@@ -2563,7 +2518,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B82">
         <v>101.6</v>
@@ -2588,7 +2543,7 @@
     </row>
     <row r="83" spans="1:7">
       <c r="A83" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B83">
         <v>101.9</v>
@@ -2613,7 +2568,7 @@
     </row>
     <row r="84" spans="1:7">
       <c r="A84" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B84">
         <v>101.6</v>
@@ -2638,7 +2593,7 @@
     </row>
     <row r="85" spans="1:7">
       <c r="A85" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B85">
         <v>101.9</v>
@@ -2663,7 +2618,7 @@
     </row>
     <row r="86" spans="1:7">
       <c r="A86" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B86">
         <v>102</v>
@@ -2688,7 +2643,7 @@
     </row>
     <row r="87" spans="1:7">
       <c r="A87" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B87">
         <v>102</v>
@@ -2713,7 +2668,7 @@
     </row>
     <row r="88" spans="1:7">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B88">
         <v>102</v>
@@ -2738,7 +2693,7 @@
     </row>
     <row r="89" spans="1:7">
       <c r="A89" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B89">
         <v>101.6</v>
@@ -2763,7 +2718,7 @@
     </row>
     <row r="90" spans="1:7">
       <c r="A90" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B90">
         <v>101.9</v>
@@ -2788,7 +2743,7 @@
     </row>
     <row r="91" spans="1:7">
       <c r="A91" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B91">
         <v>101.8</v>
@@ -2813,7 +2768,7 @@
     </row>
     <row r="92" spans="1:7">
       <c r="A92" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B92">
         <v>101.9</v>
@@ -2838,7 +2793,7 @@
     </row>
     <row r="93" spans="1:7">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B93">
         <v>101.7</v>
@@ -2863,7 +2818,7 @@
     </row>
     <row r="94" spans="1:7">
       <c r="A94" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B94">
         <v>102.2</v>
@@ -2888,7 +2843,7 @@
     </row>
     <row r="95" spans="1:7">
       <c r="A95" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B95">
         <v>101.9</v>
@@ -2913,7 +2868,7 @@
     </row>
     <row r="96" spans="1:7">
       <c r="A96" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B96">
         <v>101.9</v>
@@ -2938,7 +2893,7 @@
     </row>
     <row r="97" spans="1:7">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B97">
         <v>101.8</v>
@@ -2963,7 +2918,7 @@
     </row>
     <row r="98" spans="1:7">
       <c r="A98" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B98">
         <v>100.7</v>
@@ -2988,7 +2943,7 @@
     </row>
     <row r="99" spans="1:7">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B99">
         <v>100.9</v>
@@ -3013,7 +2968,7 @@
     </row>
     <row r="100" spans="1:7">
       <c r="A100" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B100">
         <v>101.2</v>
@@ -3038,7 +2993,7 @@
     </row>
     <row r="101" spans="1:7">
       <c r="A101" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B101">
         <v>100.8</v>
@@ -3063,7 +3018,7 @@
     </row>
     <row r="102" spans="1:7">
       <c r="A102" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -3088,7 +3043,7 @@
     </row>
     <row r="103" spans="1:7">
       <c r="A103" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B103">
         <v>101.1</v>
@@ -3113,7 +3068,7 @@
     </row>
     <row r="104" spans="1:7">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B104">
         <v>100.8</v>
@@ -3138,7 +3093,7 @@
     </row>
     <row r="105" spans="1:7">
       <c r="A105" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B105">
         <v>101.3</v>
@@ -3163,7 +3118,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B106">
         <v>101.1</v>
@@ -3188,7 +3143,7 @@
     </row>
     <row r="107" spans="1:7">
       <c r="A107" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B107">
         <v>101</v>
@@ -3213,7 +3168,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B108">
         <v>100.9</v>
@@ -3238,7 +3193,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B109">
         <v>101.2</v>
@@ -3263,7 +3218,7 @@
     </row>
     <row r="110" spans="1:7">
       <c r="A110" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B110">
         <v>101</v>
@@ -3288,7 +3243,7 @@
     </row>
     <row r="111" spans="1:7">
       <c r="A111" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B111">
         <v>100.8</v>
@@ -3313,7 +3268,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B112">
         <v>101</v>
@@ -3338,7 +3293,7 @@
     </row>
     <row r="113" spans="1:7">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B113">
         <v>100.7</v>
@@ -3363,7 +3318,7 @@
     </row>
     <row r="114" spans="1:7">
       <c r="A114" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B114">
         <v>107.1</v>
@@ -3388,7 +3343,7 @@
     </row>
     <row r="115" spans="1:7">
       <c r="A115" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="B115">
         <v>107.8</v>
@@ -3413,7 +3368,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B116">
         <v>107.6</v>
@@ -3438,7 +3393,7 @@
     </row>
     <row r="117" spans="1:7">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B117">
         <v>107.7</v>
@@ -3463,7 +3418,7 @@
     </row>
     <row r="118" spans="1:7">
       <c r="A118" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B118">
         <v>109</v>
@@ -3488,7 +3443,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B119">
         <v>108.2</v>
@@ -3513,7 +3468,7 @@
     </row>
     <row r="120" spans="1:7">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B120">
         <v>107.3</v>
@@ -3538,7 +3493,7 @@
     </row>
     <row r="121" spans="1:7">
       <c r="A121" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B121">
         <v>108.4</v>
@@ -3563,7 +3518,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B122">
         <v>107.6</v>
@@ -3588,7 +3543,7 @@
     </row>
     <row r="123" spans="1:7">
       <c r="A123" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B123">
         <v>107.6</v>
@@ -3613,7 +3568,7 @@
     </row>
     <row r="124" spans="1:7">
       <c r="A124" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B124">
         <v>107.2</v>
@@ -3638,7 +3593,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B125">
         <v>107.6</v>
@@ -3663,7 +3618,7 @@
     </row>
     <row r="126" spans="1:7">
       <c r="A126" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B126">
         <v>108.8</v>
@@ -3688,7 +3643,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B127">
         <v>107.7</v>
@@ -3713,7 +3668,7 @@
     </row>
     <row r="128" spans="1:7">
       <c r="A128" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B128">
         <v>108</v>
@@ -3738,7 +3693,7 @@
     </row>
     <row r="129" spans="1:7">
       <c r="A129" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B129">
         <v>106.6</v>
